--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2507989.17918028</v>
+        <v>2503893.537675514</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>258.4659106891204</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>199.5480581133537</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7989983202087449</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>115.0952770674511</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>238.0996983696685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>196.6997841156781</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542792</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.7336954102807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>330.1313724127989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>242.8528437613032</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>138.5234422138599</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1341,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>87.83762944231115</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>69.82863813027285</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>139.6152205166465</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1660,10 +1660,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.019807611472697</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>112.7304175246786</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>100.1755269486887</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>265.56576948799</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>201.8437228691386</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>115.4764219077142</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1343012721633</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.725694231566</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.725694231566</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.725694231566</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1093.74216198791</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>682.7562571983024</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087292</v>
@@ -4342,40 +4342,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2027.330784468458</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2027.330784468458</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X2" t="n">
-        <v>1653.865026207378</v>
+        <v>1479.530414586154</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.725694231566</v>
+        <v>1479.530414586154</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.0604424885611</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="C4" t="n">
-        <v>349.0604424885611</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9438030762254</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9438030762254</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>52.05385557831499</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>52.05385557831499</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>52.05385557831499</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.115628253779</v>
+        <v>997.9976293209878</v>
       </c>
       <c r="W4" t="n">
-        <v>758.6984582168182</v>
+        <v>997.9976293209878</v>
       </c>
       <c r="X4" t="n">
-        <v>530.7089073188008</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="Y4" t="n">
-        <v>530.7089073188008</v>
+        <v>770.0080784229705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1118.44218746127</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.44218746127</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1118.44218746127</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816077</v>
@@ -4579,40 +4579,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525392</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525392</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>343.6260600182037</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>638.3296170496754</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.299101484277</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524211</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548399</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>917.616325937273</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>748.6801430093661</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>598.5635035970304</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>450.6504100146373</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>303.7604625167269</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1748.739212621464</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1748.739212621464</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1748.739212621464</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1494.054724415577</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1494.054724415577</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1099.264790767513</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5065,25 +5065,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5226,25 +5226,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2376.429105670894</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U13" t="n">
-        <v>2123.082773965825</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5357,22 +5357,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2040.446372529346</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.371145873544</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.686657667657</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630696</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326791</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557011</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>3060.83890577277</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3658.217393399321</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4285.815356953928</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408906</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2273.199413378161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,16 +6469,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2303.393082295247</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>184.7035232280589</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>168.7434581780644</v>
       </c>
       <c r="O3" t="n">
-        <v>231.2582814363244</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>45.76488231024476</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179986</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>111.1976478713717</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>146.5692538725976</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.35543909864896</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>105.8542358274162</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>125.5341284403485</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>20.61870490125415</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>50.29392045468941</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>30.95754073885493</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>38.89198472948132</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>39.70888054695394</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>37.12601365260461</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675665</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708108.4580630471</v>
+        <v>-708108.4580630464</v>
       </c>
       <c r="C6" t="n">
-        <v>406643.3255128729</v>
+        <v>406643.325512873</v>
       </c>
       <c r="D6" t="n">
-        <v>247222.0555149805</v>
+        <v>247222.0555149803</v>
       </c>
       <c r="E6" t="n">
-        <v>189666.422771736</v>
+        <v>189319.043517379</v>
       </c>
       <c r="F6" t="n">
-        <v>515078.8845790914</v>
+        <v>514731.5053247342</v>
       </c>
       <c r="G6" t="n">
-        <v>515078.8845790914</v>
+        <v>514731.5053247342</v>
       </c>
       <c r="H6" t="n">
-        <v>515078.8845790913</v>
+        <v>514731.505324734</v>
       </c>
       <c r="I6" t="n">
-        <v>515078.8845790912</v>
+        <v>514731.5053247342</v>
       </c>
       <c r="J6" t="n">
-        <v>347473.7067691085</v>
+        <v>347126.3275147518</v>
       </c>
       <c r="K6" t="n">
-        <v>515078.8845790912</v>
+        <v>514731.5053247343</v>
       </c>
       <c r="L6" t="n">
-        <v>466784.9145709007</v>
+        <v>466437.5353165434</v>
       </c>
       <c r="M6" t="n">
-        <v>430023.8566435793</v>
+        <v>429676.4773892222</v>
       </c>
       <c r="N6" t="n">
-        <v>515078.8845790911</v>
+        <v>514731.5053247344</v>
       </c>
       <c r="O6" t="n">
-        <v>515078.8845790911</v>
+        <v>514731.5053247341</v>
       </c>
       <c r="P6" t="n">
-        <v>515078.8845790908</v>
+        <v>514731.5053247342</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>153.0817920838336</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>128.2042003567812</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>103.9975968836918</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,16 +27590,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>137.0423662563769</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>143.8306717025933</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>173.0313165627909</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.85095794181407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>35.14151935820865</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>168.0688818921502</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.231572700460845</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>101.9313958891307</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33736,31 +33736,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>559.9405577709383</v>
       </c>
       <c r="O3" t="n">
-        <v>566.6829634324475</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>232.3523785537296</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>90.01966967204031</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2503893.537675514</v>
+        <v>2505654.067978299</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>258.4659106891204</v>
+        <v>300.2028369868398</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>115.0952770674511</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>130.9898714432076</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>196.6997841156781</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542792</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>49.73745743908432</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613032</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>237.7439220037822</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5234422138599</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>69.82863813027285</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053464</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.7304175246786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428163</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>265.56576948799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>201.8437228691386</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>216.5778877258751</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1479.530414586154</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="C2" t="n">
-        <v>1479.530414586154</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="D2" t="n">
-        <v>1479.530414586154</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="E2" t="n">
-        <v>1093.74216198791</v>
+        <v>831.841529397318</v>
       </c>
       <c r="F2" t="n">
-        <v>682.7562571983024</v>
+        <v>420.8556246077105</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586154</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y2" t="n">
-        <v>1479.530414586154</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.0080784229705</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>997.9976293209878</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>997.9976293209878</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>770.0080784229705</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.0080784229705</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331015</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2430.026326942369</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2430.026326942369</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>2430.026326942369</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400154</v>
+        <v>2430.026326942369</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>2430.026326942369</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>2039.886994966557</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>417.3862008411927</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>417.3862008411927</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>417.3862008411927</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>269.4731072587996</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>269.4731072587996</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>101.4866425670782</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>101.4866425670782</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>1047.81679571298</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>819.8272448149626</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>599.0346656714324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>2245.732315283597</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367745</v>
+        <v>1876.769798343185</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760994</v>
+        <v>1518.504099736435</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.38442316275</v>
+        <v>1132.715847138191</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731427</v>
+        <v>721.7299423485831</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>306.6574921935796</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.14006334809</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093661</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970304</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146373</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167269</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>303.7604625167269</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,7 +5135,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.184733704552</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7012443408906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1551.549009249638</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.131839212678</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.14228831466</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>813.3497091711304</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6627,46 +6627,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199798</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993911</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956951</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,70 +6919,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7153,61 +7153,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
         <v>2129.438138565707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>168.7434581780644</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013345</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878355</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194191</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>20.61870490125415</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>50.29392045468941</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>9.131767663162009</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>795507.1502079286</v>
+        <v>795507.1502079285</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>795507.1502079285</v>
+        <v>795507.1502079286</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810783</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756533</v>
-      </c>
       <c r="G4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756539</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708108.4580630464</v>
+        <v>-708108.4580630468</v>
       </c>
       <c r="C6" t="n">
-        <v>406643.325512873</v>
+        <v>406643.3255128728</v>
       </c>
       <c r="D6" t="n">
         <v>247222.0555149803</v>
       </c>
       <c r="E6" t="n">
-        <v>189319.043517379</v>
+        <v>189631.6848463003</v>
       </c>
       <c r="F6" t="n">
-        <v>514731.5053247342</v>
+        <v>515044.1466536556</v>
       </c>
       <c r="G6" t="n">
-        <v>514731.5053247342</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="H6" t="n">
-        <v>514731.505324734</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="I6" t="n">
-        <v>514731.5053247342</v>
+        <v>515044.1466536553</v>
       </c>
       <c r="J6" t="n">
-        <v>347126.3275147518</v>
+        <v>347438.968843673</v>
       </c>
       <c r="K6" t="n">
-        <v>514731.5053247343</v>
+        <v>515044.1466536556</v>
       </c>
       <c r="L6" t="n">
-        <v>466437.5353165434</v>
+        <v>466750.1766454646</v>
       </c>
       <c r="M6" t="n">
-        <v>429676.4773892222</v>
+        <v>429989.1187181438</v>
       </c>
       <c r="N6" t="n">
-        <v>514731.5053247344</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="O6" t="n">
-        <v>514731.5053247341</v>
+        <v>515044.1466536555</v>
       </c>
       <c r="P6" t="n">
-        <v>514731.5053247342</v>
+        <v>515044.1466536555</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>153.0817920838336</v>
+        <v>111.3448657861142</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>137.0423662563769</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>75.66831353702611</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>173.0313165627909</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>55.05913776481626</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921502</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>56.8638423835383</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>6.231572700460845</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.517001600586576e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-4.938527139227503e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,46 +31281,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32235,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663306</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860883</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673334</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34219,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>559.9405577709383</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>230.836231232189</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313202</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396443</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496665</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524545</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531504</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191277</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
